--- a/Mechanism/assetsImg/tilemap_model.xlsx
+++ b/Mechanism/assetsImg/tilemap_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="8865" windowHeight="3885"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="8865" windowHeight="3885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,26 +565,26 @@
         <v>29</v>
       </c>
       <c r="K4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,29,29,29,29,29,29,29,29,29,29,29,29</v>
+        <v>29,29,29,29,29,29,29,29,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -613,32 +613,32 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,2,2,2,3,2,2,2,3,3,3,3,3</v>
+        <v>29,29,29,29,2,2,2,3,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -667,32 +667,32 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,3,3,3,3</v>
+        <v>29,29,29,29,3,3,2,3,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -721,32 +721,32 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,3,3,3,3</v>
+        <v>29,29,29,29,3,3,2,3,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -775,32 +775,32 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,2,2,2,3</v>
+        <v>29,29,29,29,3,3,2,3,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -829,32 +829,32 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,2,3,2,3</v>
+        <v>29,29,29,29,3,3,2,3,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -871,44 +871,44 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,2,3,2,3</v>
+        <v>29,29,29,29,29,29,29,29,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -925,44 +925,44 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,3,2,3,2,3,2,3,2,3</v>
+        <v>29,29,29,29,29,29,29,29,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -979,44 +979,44 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,3,3,2,2,2,3,2,2,2,3,2,2</v>
+        <v>29,29,29,29,29,29,29,29,29,29,30,30,30,30,30,30</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanism/assetsImg/tilemap_model.xlsx
+++ b/Mechanism/assetsImg/tilemap_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="8865" windowHeight="3885"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="8865" windowHeight="3885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,26 +565,26 @@
         <v>29</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,29,29,29,29,29,29,30,30,30,30,30,30</v>
+        <v>29,29,29,29,29,29,29,29,29,29,29,29,29,29,29,29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -619,26 +619,26 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>29,29,29,29,2,2,2,3,29,29,30,30,30,30,30,30</v>
+        <v>29,29,29,29,2,2,2,3,29,29,29,29,29,29,29,29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
